--- a/data/trans_camb/IP18A01-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP18A01-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 12,61</t>
+          <t>-4,29; 12,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 7,98</t>
+          <t>-7,08; 8,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 28,58</t>
+          <t>-9,23; 25,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 7,35</t>
+          <t>-8,38; 7,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 2,4</t>
+          <t>-14,97; 0,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,27; 43,92</t>
+          <t>-10,8; 46,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 6,58</t>
+          <t>-4,57; 6,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 2,38</t>
+          <t>-8,68; 2,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 22,11</t>
+          <t>-7,5; 20,86</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-41,75; 290,41</t>
+          <t>-43,7; 323,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-68,87; 197,8</t>
+          <t>-69,37; 242,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 893,75</t>
+          <t>-100,0; 704,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-56,39; 111,27</t>
+          <t>-57,43; 117,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-89,75; 59,22</t>
+          <t>-90,73; 30,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 666,6</t>
+          <t>-100,0; 575,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-36,19; 103,57</t>
+          <t>-37,48; 103,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-72,53; 37,31</t>
+          <t>-73,89; 44,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-74,66; 307,81</t>
+          <t>-73,07; 291,75</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 5,29</t>
+          <t>-1,17; 4,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 2,78</t>
+          <t>-2,98; 3,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,34; -0,08</t>
+          <t>-7,46; -0,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 5,35</t>
+          <t>-1,09; 5,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 7,24</t>
+          <t>0,45; 6,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 6,87</t>
+          <t>-4,5; 7,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 4,13</t>
+          <t>-0,33; 4,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 4,13</t>
+          <t>-0,33; 4,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 1,42</t>
+          <t>-5,25; 0,99</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 79,76</t>
+          <t>-13,15; 79,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-32,88; 40,93</t>
+          <t>-32,85; 45,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-81,94; 1,04</t>
+          <t>-82,53; -4,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,18; 96,09</t>
+          <t>-13,8; 91,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,77; 124,77</t>
+          <t>4,54; 117,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-58,96; 114,62</t>
+          <t>-55,87; 122,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 62,36</t>
+          <t>-3,85; 64,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 62,29</t>
+          <t>-4,37; 63,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-62,84; 20,51</t>
+          <t>-62,99; 16,02</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 4,78</t>
+          <t>-6,1; 5,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 6,82</t>
+          <t>-3,96; 7,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 5,8</t>
+          <t>-11,51; 6,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 6,31</t>
+          <t>-5,5; 6,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 0,3</t>
+          <t>-9,72; 0,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 7,41</t>
+          <t>-11,29; 6,81</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 3,9</t>
+          <t>-4,0; 3,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 2,41</t>
+          <t>-5,26; 2,17</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 2,11</t>
+          <t>-9,89; 2,18</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-46,79; 81,13</t>
+          <t>-49,01; 73,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-33,88; 98,41</t>
+          <t>-33,99; 108,42</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 106,85</t>
+          <t>-100,0; 104,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-41,1; 82,61</t>
+          <t>-41,74; 78,94</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-72,92; 4,68</t>
+          <t>-73,37; 13,61</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 103,86</t>
+          <t>-100,0; 124,33</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-34,49; 48,88</t>
+          <t>-32,28; 47,9</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-43,87; 32,1</t>
+          <t>-43,03; 29,09</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-89,21; 29,73</t>
+          <t>-85,15; 29,12</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 4,21</t>
+          <t>-1,03; 3,96</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 3,08</t>
+          <t>-2,28; 2,72</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,96; -0,71</t>
+          <t>-7,11; -0,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 3,88</t>
+          <t>-1,53; 3,82</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 3,47</t>
+          <t>-1,89; 3,6</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 3,52</t>
+          <t>-4,96; 4,09</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 3,41</t>
+          <t>-0,31; 3,29</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 2,35</t>
+          <t>-1,34; 2,32</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 0,08</t>
+          <t>-5,43; -0,06</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 59,12</t>
+          <t>-10,66; 56,71</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-20,58; 42,73</t>
+          <t>-23,9; 37,52</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-76,81; -9,06</t>
+          <t>-75,92; -3,05</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-15,78; 54,13</t>
+          <t>-15,08; 52,93</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-17,47; 49,06</t>
+          <t>-18,94; 47,82</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-57,81; 44,71</t>
+          <t>-54,74; 52,62</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 44,47</t>
+          <t>-3,56; 43,74</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-14,83; 30,75</t>
+          <t>-14,2; 30,26</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-59,82; 1,4</t>
+          <t>-60,48; 0,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP18A01-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP18A01-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>100,0</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-6,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6,98</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>100,0</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,08</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,08</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,53; 7,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,55; 2,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,61; 47,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,8; 11,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,8; 7,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,31; 29,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,68; 7,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,42; 2,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,3; 21,56</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-6,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,61%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,9%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,87%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,21%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>12,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,85%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,19%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,22; 106,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,6; 48,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 634,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,22; 323,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,63; 221,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 708,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,56; 111,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,77; 49,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,02; 289,8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-6,14</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,98</t>
+          <t>-4,41</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-3,08</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>-2,61</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 12,24</t>
+          <t>-1,11; 5,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 8,11</t>
+          <t>0,76; 7,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 25,87</t>
+          <t>-4,73; 6,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 7,88</t>
+          <t>-0,93; 5,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,97; 0,98</t>
+          <t>-3,24; 2,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 46,13</t>
+          <t>-7,51; -0,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 6,66</t>
+          <t>-0,41; 4,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 2,67</t>
+          <t>-0,42; 4,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 20,86</t>
+          <t>-5,16; 0,9</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>41,87%</t>
+          <t>27,68%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,92%</t>
+          <t>54,78%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-12,48%</t>
+          <t>-3,23%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-6,64%</t>
+          <t>25,15%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-53,61%</t>
+          <t>-1,13%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>60,97%</t>
+          <t>-54,85%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>26,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-32,85%</t>
+          <t>24,85%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>23,27%</t>
+          <t>-34,13%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-43,7; 323,28</t>
+          <t>-12,31; 97,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-69,37; 242,63</t>
+          <t>5,84; 124,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 704,59</t>
+          <t>-60,11; 107,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-57,43; 117,5</t>
+          <t>-11,47; 82,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-90,73; 30,38</t>
+          <t>-34,14; 43,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 575,84</t>
+          <t>-81,88; -1,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-37,48; 103,28</t>
+          <t>-4,91; 66,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-73,89; 44,32</t>
+          <t>-5,18; 62,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-73,07; 291,75</t>
+          <t>-62,49; 13,36</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-4,48</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,38</t>
+          <t>-5,6</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,94</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>-5,32</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,51</t>
+          <t>-5,49</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 4,98</t>
+          <t>-4,96; 6,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 3,06</t>
+          <t>-9,47; 0,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,46; -0,51</t>
+          <t>-11,46; 7,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 5,13</t>
+          <t>-5,95; 5,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,45; 6,99</t>
+          <t>-4,17; 6,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 7,47</t>
+          <t>-10,99; 4,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 4,07</t>
+          <t>-3,82; 4,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 4,17</t>
+          <t>-5,41; 2,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 0,99</t>
+          <t>-10,08; 1,22</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>25,15%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,13%</t>
+          <t>-42,64%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-54,43%</t>
+          <t>-53,35%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>27,68%</t>
+          <t>-5,98%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>54,78%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-1,51%</t>
+          <t>-53,92%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>26,31%</t>
+          <t>-0,65%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>24,85%</t>
+          <t>-13,2%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-32,83%</t>
+          <t>-53,8%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,15; 79,77</t>
+          <t>-38,23; 75,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-32,85; 45,71</t>
+          <t>-70,65; 5,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-82,53; -4,84</t>
+          <t>-100,0; 123,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 91,61</t>
+          <t>-47,75; 88,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,54; 117,07</t>
+          <t>-33,58; 97,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-55,87; 122,52</t>
+          <t>-100,0; 92,24</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 64,81</t>
+          <t>-32,1; 48,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 63,99</t>
+          <t>-43,87; 28,37</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-62,99; 16,02</t>
+          <t>-87,62; 21,27</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-5,0</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,48</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-5,39</t>
+          <t>-4,31</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-5,21</t>
+          <t>-3,07</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 5,09</t>
+          <t>-1,29; 4,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 7,38</t>
+          <t>-1,65; 3,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,51; 6,22</t>
+          <t>-5,49; 4,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 6,26</t>
+          <t>-1,03; 4,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 0,72</t>
+          <t>-2,43; 2,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,29; 6,81</t>
+          <t>-7,18; -0,73</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 3,75</t>
+          <t>-0,87; 3,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 2,17</t>
+          <t>-1,38; 2,3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 2,18</t>
+          <t>-5,51; -0,4</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-5,98%</t>
+          <t>14,73%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>15,21%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-50,63%</t>
+          <t>-16,52%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>18,55%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-42,64%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-51,31%</t>
+          <t>-51,5%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-0,65%</t>
+          <t>16,67%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-13,2%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-51,1%</t>
+          <t>-36,27%</t>
         </is>
       </c>
     </row>
@@ -1439,282 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-49,01; 73,22</t>
+          <t>-13,43; 56,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-33,99; 108,42</t>
+          <t>-16,95; 47,06</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 104,64</t>
+          <t>-60,37; 57,88</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-41,74; 78,94</t>
+          <t>-10,87; 58,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-73,37; 13,61</t>
+          <t>-24,46; 39,57</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 124,33</t>
+          <t>-75,7; -4,83</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-32,28; 47,9</t>
+          <t>-8,69; 42,55</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-43,03; 29,09</t>
+          <t>-14,45; 30,73</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-85,15; 29,12</t>
+          <t>-61,07; -1,72</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>1,64</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-4,22</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>1,26</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-1,26</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>1,46</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>0,62</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-2,92</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-1,03; 3,96</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-2,28; 2,72</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-7,11; -0,37</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-1,53; 3,82</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-1,89; 3,6</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-4,96; 4,09</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-0,31; 3,29</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-1,34; 2,32</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>-5,43; -0,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>19,67%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>4,67%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-50,46%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>14,73%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>10,05%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-14,78%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>17,23%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>7,33%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>-34,58%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-10,66; 56,71</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-23,9; 37,52</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-75,92; -3,05</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-15,08; 52,93</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-18,94; 47,82</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-54,74; 52,62</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>-3,56; 43,74</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-14,2; 30,26</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>-60,48; 0,79</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
